--- a/fuzzy_stability_analysis/results/fuz_stability_link/L/fuzziness_quantiles.xlsx
+++ b/fuzzy_stability_analysis/results/fuz_stability_link/L/fuzziness_quantiles.xlsx
@@ -27,28 +27,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="129">
   <si>
-    <t>st_0.4_const_ass</t>
-  </si>
-  <si>
-    <t>st_0.6_const_ass</t>
-  </si>
-  <si>
     <t>st_0.8_const_ass</t>
   </si>
   <si>
     <t>st_1_const_ass</t>
   </si>
   <si>
-    <t>st_0.4_thr_0.5</t>
-  </si>
-  <si>
-    <t>st_0.6_thr_0.5</t>
+    <t>st_1.2_const_ass</t>
+  </si>
+  <si>
+    <t>st_1.4_const_ass</t>
   </si>
   <si>
     <t>st_0.8_thr_0.5</t>
   </si>
   <si>
     <t>st_1_thr_0.5</t>
+  </si>
+  <si>
+    <t>st_1.2_thr_0.5</t>
+  </si>
+  <si>
+    <t>st_1.4_thr_0.5</t>
   </si>
   <si>
     <t>n_obs</t>
@@ -812,28 +812,28 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="D2">
-        <v>0.999</v>
+        <v>0.985</v>
       </c>
       <c r="E2">
-        <v>0.994</v>
+        <v>0.975</v>
       </c>
       <c r="F2">
-        <v>0.981</v>
+        <v>0.97</v>
       </c>
       <c r="G2">
-        <v>0.976</v>
+        <v>0.95</v>
       </c>
       <c r="H2">
-        <v>0.97</v>
+        <v>0.923</v>
       </c>
       <c r="I2">
-        <v>0.95</v>
+        <v>0.893</v>
       </c>
       <c r="J2">
         <v>13</v>
@@ -847,25 +847,25 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.984</v>
       </c>
       <c r="E3">
-        <v>0.994</v>
+        <v>0.967</v>
       </c>
       <c r="F3">
-        <v>0.981</v>
+        <v>0.971</v>
       </c>
       <c r="G3">
-        <v>0.976</v>
+        <v>0.95</v>
       </c>
       <c r="H3">
-        <v>0.971</v>
+        <v>0.921</v>
       </c>
       <c r="I3">
-        <v>0.95</v>
+        <v>0.888</v>
       </c>
       <c r="J3">
         <v>13</v>
@@ -876,28 +876,28 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.988</v>
       </c>
       <c r="D4">
-        <v>0.998</v>
+        <v>0.972</v>
       </c>
       <c r="E4">
-        <v>0.988</v>
+        <v>0.951</v>
       </c>
       <c r="F4">
-        <v>0.984</v>
+        <v>0.958</v>
       </c>
       <c r="G4">
-        <v>0.975</v>
+        <v>0.931</v>
       </c>
       <c r="H4">
-        <v>0.958</v>
+        <v>0.895</v>
       </c>
       <c r="I4">
-        <v>0.931</v>
+        <v>0.856</v>
       </c>
       <c r="J4">
         <v>12</v>
@@ -908,28 +908,28 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="D5">
-        <v>0.997</v>
+        <v>0.974</v>
       </c>
       <c r="E5">
-        <v>0.99</v>
+        <v>0.959</v>
       </c>
       <c r="F5">
-        <v>0.987</v>
+        <v>0.95</v>
       </c>
       <c r="G5">
-        <v>0.973</v>
+        <v>0.92</v>
       </c>
       <c r="H5">
-        <v>0.95</v>
+        <v>0.882</v>
       </c>
       <c r="I5">
-        <v>0.92</v>
+        <v>0.845</v>
       </c>
       <c r="J5">
         <v>13</v>
@@ -940,28 +940,28 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="C6">
-        <v>0.999</v>
+        <v>0.982</v>
       </c>
       <c r="D6">
-        <v>0.995</v>
+        <v>0.964</v>
       </c>
       <c r="E6">
-        <v>0.982</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="F6">
-        <v>0.988</v>
+        <v>0.945</v>
       </c>
       <c r="G6">
-        <v>0.972</v>
+        <v>0.908</v>
       </c>
       <c r="H6">
-        <v>0.945</v>
+        <v>0.867</v>
       </c>
       <c r="I6">
-        <v>0.908</v>
+        <v>0.822</v>
       </c>
       <c r="J6">
         <v>12</v>
@@ -972,28 +972,28 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="C7">
-        <v>0.997</v>
+        <v>0.973</v>
       </c>
       <c r="D7">
-        <v>0.99</v>
+        <v>0.956</v>
       </c>
       <c r="E7">
-        <v>0.973</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="F7">
-        <v>0.987</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="G7">
-        <v>0.97</v>
+        <v>0.903</v>
       </c>
       <c r="H7">
-        <v>0.9429999999999999</v>
+        <v>0.864</v>
       </c>
       <c r="I7">
-        <v>0.903</v>
+        <v>0.823</v>
       </c>
       <c r="J7">
         <v>13</v>
@@ -1004,28 +1004,28 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.978</v>
       </c>
       <c r="C8">
-        <v>0.997</v>
+        <v>0.946</v>
       </c>
       <c r="D8">
-        <v>0.978</v>
+        <v>0.913</v>
       </c>
       <c r="E8">
-        <v>0.946</v>
+        <v>0.873</v>
       </c>
       <c r="F8">
-        <v>0.986</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="G8">
-        <v>0.971</v>
+        <v>0.89</v>
       </c>
       <c r="H8">
-        <v>0.9370000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="I8">
-        <v>0.89</v>
+        <v>0.792</v>
       </c>
       <c r="J8">
         <v>12</v>
@@ -1036,28 +1036,28 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.998</v>
+        <v>0.962</v>
       </c>
       <c r="C9">
-        <v>0.99</v>
+        <v>0.918</v>
       </c>
       <c r="D9">
-        <v>0.962</v>
+        <v>0.88</v>
       </c>
       <c r="E9">
-        <v>0.918</v>
+        <v>0.84</v>
       </c>
       <c r="F9">
-        <v>0.987</v>
+        <v>0.914</v>
       </c>
       <c r="G9">
-        <v>0.962</v>
+        <v>0.853</v>
       </c>
       <c r="H9">
-        <v>0.914</v>
+        <v>0.8</v>
       </c>
       <c r="I9">
-        <v>0.853</v>
+        <v>0.748</v>
       </c>
       <c r="J9">
         <v>13</v>
@@ -1068,28 +1068,28 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.999</v>
+        <v>0.946</v>
       </c>
       <c r="C10">
-        <v>0.981</v>
+        <v>0.895</v>
       </c>
       <c r="D10">
-        <v>0.946</v>
+        <v>0.847</v>
       </c>
       <c r="E10">
-        <v>0.895</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="F10">
-        <v>0.984</v>
+        <v>0.908</v>
       </c>
       <c r="G10">
-        <v>0.957</v>
+        <v>0.848</v>
       </c>
       <c r="H10">
-        <v>0.908</v>
+        <v>0.791</v>
       </c>
       <c r="I10">
-        <v>0.848</v>
+        <v>0.751</v>
       </c>
       <c r="J10">
         <v>12</v>
@@ -1100,28 +1100,28 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.863</v>
+        <v>0.72</v>
       </c>
       <c r="C11">
-        <v>0.785</v>
+        <v>0.678</v>
       </c>
       <c r="D11">
-        <v>0.72</v>
+        <v>0.639</v>
       </c>
       <c r="E11">
-        <v>0.678</v>
+        <v>0.617</v>
       </c>
       <c r="F11">
-        <v>0.857</v>
+        <v>0.704</v>
       </c>
       <c r="G11">
-        <v>0.772</v>
+        <v>0.659</v>
       </c>
       <c r="H11">
-        <v>0.704</v>
+        <v>0.617</v>
       </c>
       <c r="I11">
-        <v>0.659</v>
+        <v>0.595</v>
       </c>
       <c r="J11">
         <v>13</v>
@@ -1177,28 +1177,28 @@
         <v>99</v>
       </c>
       <c r="B2">
-        <v>0.9330000000000001</v>
+        <v>0.768</v>
       </c>
       <c r="C2">
-        <v>0.85</v>
+        <v>0.702</v>
       </c>
       <c r="D2">
-        <v>0.768</v>
+        <v>0.647</v>
       </c>
       <c r="E2">
-        <v>0.702</v>
+        <v>0.618</v>
       </c>
       <c r="F2">
-        <v>0.924</v>
+        <v>0.746</v>
       </c>
       <c r="G2">
-        <v>0.834</v>
+        <v>0.677</v>
       </c>
       <c r="H2">
-        <v>0.746</v>
+        <v>0.622</v>
       </c>
       <c r="I2">
-        <v>0.677</v>
+        <v>0.594</v>
       </c>
       <c r="J2">
         <v>13</v>
@@ -1209,28 +1209,28 @@
         <v>100</v>
       </c>
       <c r="B3">
-        <v>0.999</v>
+        <v>0.958</v>
       </c>
       <c r="C3">
-        <v>0.99</v>
+        <v>0.908</v>
       </c>
       <c r="D3">
-        <v>0.958</v>
+        <v>0.862</v>
       </c>
       <c r="E3">
-        <v>0.908</v>
+        <v>0.82</v>
       </c>
       <c r="F3">
-        <v>0.986</v>
+        <v>0.915</v>
       </c>
       <c r="G3">
-        <v>0.964</v>
+        <v>0.851</v>
       </c>
       <c r="H3">
-        <v>0.915</v>
+        <v>0.793</v>
       </c>
       <c r="I3">
-        <v>0.851</v>
+        <v>0.743</v>
       </c>
       <c r="J3">
         <v>13</v>
@@ -1241,28 +1241,28 @@
         <v>101</v>
       </c>
       <c r="B4">
-        <v>0.999</v>
+        <v>0.976</v>
       </c>
       <c r="C4">
-        <v>0.994</v>
+        <v>0.945</v>
       </c>
       <c r="D4">
-        <v>0.976</v>
+        <v>0.917</v>
       </c>
       <c r="E4">
-        <v>0.945</v>
+        <v>0.884</v>
       </c>
       <c r="F4">
-        <v>0.986</v>
+        <v>0.93</v>
       </c>
       <c r="G4">
-        <v>0.968</v>
+        <v>0.882</v>
       </c>
       <c r="H4">
-        <v>0.93</v>
+        <v>0.837</v>
       </c>
       <c r="I4">
-        <v>0.882</v>
+        <v>0.79</v>
       </c>
       <c r="J4">
         <v>12</v>
@@ -1273,28 +1273,28 @@
         <v>102</v>
       </c>
       <c r="B5">
-        <v>0.975</v>
+        <v>0.951</v>
       </c>
       <c r="C5">
-        <v>0.968</v>
+        <v>0.919</v>
       </c>
       <c r="D5">
-        <v>0.951</v>
+        <v>0.887</v>
       </c>
       <c r="E5">
-        <v>0.919</v>
+        <v>0.853</v>
       </c>
       <c r="F5">
-        <v>0.962</v>
+        <v>0.913</v>
       </c>
       <c r="G5">
-        <v>0.944</v>
+        <v>0.867</v>
       </c>
       <c r="H5">
-        <v>0.913</v>
+        <v>0.82</v>
       </c>
       <c r="I5">
-        <v>0.867</v>
+        <v>0.777</v>
       </c>
       <c r="J5">
         <v>13</v>
@@ -1305,28 +1305,28 @@
         <v>103</v>
       </c>
       <c r="B6">
-        <v>0.951</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C6">
-        <v>0.944</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="D6">
-        <v>0.9399999999999999</v>
+        <v>0.915</v>
       </c>
       <c r="E6">
-        <v>0.9320000000000001</v>
+        <v>0.892</v>
       </c>
       <c r="F6">
-        <v>0.9389999999999999</v>
+        <v>0.899</v>
       </c>
       <c r="G6">
-        <v>0.92</v>
+        <v>0.872</v>
       </c>
       <c r="H6">
-        <v>0.899</v>
+        <v>0.835</v>
       </c>
       <c r="I6">
-        <v>0.872</v>
+        <v>0.796</v>
       </c>
       <c r="J6">
         <v>12</v>
@@ -1337,28 +1337,28 @@
         <v>104</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="D7">
-        <v>0.998</v>
+        <v>0.978</v>
       </c>
       <c r="E7">
-        <v>0.99</v>
+        <v>0.955</v>
       </c>
       <c r="F7">
-        <v>0.988</v>
+        <v>0.948</v>
       </c>
       <c r="G7">
-        <v>0.972</v>
+        <v>0.914</v>
       </c>
       <c r="H7">
-        <v>0.948</v>
+        <v>0.877</v>
       </c>
       <c r="I7">
-        <v>0.914</v>
+        <v>0.834</v>
       </c>
       <c r="J7">
         <v>13</v>
@@ -1369,28 +1369,28 @@
         <v>105</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.989</v>
       </c>
       <c r="D8">
-        <v>0.996</v>
+        <v>0.971</v>
       </c>
       <c r="E8">
-        <v>0.989</v>
+        <v>0.955</v>
       </c>
       <c r="F8">
-        <v>0.986</v>
+        <v>0.95</v>
       </c>
       <c r="G8">
-        <v>0.973</v>
+        <v>0.92</v>
       </c>
       <c r="H8">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="I8">
-        <v>0.92</v>
+        <v>0.843</v>
       </c>
       <c r="J8">
         <v>12</v>
@@ -1401,28 +1401,28 @@
         <v>106</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.989</v>
       </c>
       <c r="D9">
-        <v>0.998</v>
+        <v>0.976</v>
       </c>
       <c r="E9">
-        <v>0.989</v>
+        <v>0.958</v>
       </c>
       <c r="F9">
-        <v>0.984</v>
+        <v>0.96</v>
       </c>
       <c r="G9">
-        <v>0.975</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="H9">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="I9">
-        <v>0.9330000000000001</v>
+        <v>0.863</v>
       </c>
       <c r="J9">
         <v>13</v>
@@ -1436,25 +1436,25 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.984</v>
       </c>
       <c r="E10">
-        <v>0.994</v>
+        <v>0.968</v>
       </c>
       <c r="F10">
-        <v>0.981</v>
+        <v>0.971</v>
       </c>
       <c r="G10">
-        <v>0.976</v>
+        <v>0.95</v>
       </c>
       <c r="H10">
-        <v>0.971</v>
+        <v>0.92</v>
       </c>
       <c r="I10">
-        <v>0.95</v>
+        <v>0.888</v>
       </c>
       <c r="J10">
         <v>12</v>
@@ -1465,28 +1465,28 @@
         <v>108</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="D11">
-        <v>0.998</v>
+        <v>0.984</v>
       </c>
       <c r="E11">
-        <v>0.993</v>
+        <v>0.972</v>
       </c>
       <c r="F11">
-        <v>0.981</v>
+        <v>0.97</v>
       </c>
       <c r="G11">
-        <v>0.976</v>
+        <v>0.95</v>
       </c>
       <c r="H11">
-        <v>0.97</v>
+        <v>0.922</v>
       </c>
       <c r="I11">
-        <v>0.95</v>
+        <v>0.891</v>
       </c>
       <c r="J11">
         <v>13</v>
@@ -1542,28 +1542,28 @@
         <v>109</v>
       </c>
       <c r="B2">
-        <v>0.958</v>
+        <v>0.799</v>
       </c>
       <c r="C2">
-        <v>0.882</v>
+        <v>0.722</v>
       </c>
       <c r="D2">
-        <v>0.799</v>
+        <v>0.66</v>
       </c>
       <c r="E2">
-        <v>0.722</v>
+        <v>0.627</v>
       </c>
       <c r="F2">
-        <v>0.949</v>
+        <v>0.774</v>
       </c>
       <c r="G2">
-        <v>0.864</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="H2">
-        <v>0.774</v>
+        <v>0.632</v>
       </c>
       <c r="I2">
-        <v>0.6929999999999999</v>
+        <v>0.601</v>
       </c>
       <c r="J2">
         <v>13</v>
@@ -1574,28 +1574,28 @@
         <v>110</v>
       </c>
       <c r="B3">
-        <v>0.973</v>
+        <v>0.926</v>
       </c>
       <c r="C3">
-        <v>0.958</v>
+        <v>0.886</v>
       </c>
       <c r="D3">
-        <v>0.926</v>
+        <v>0.848</v>
       </c>
       <c r="E3">
+        <v>0.8090000000000001</v>
+      </c>
+      <c r="F3">
         <v>0.886</v>
       </c>
-      <c r="F3">
-        <v>0.962</v>
-      </c>
       <c r="G3">
-        <v>0.9330000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="H3">
-        <v>0.886</v>
+        <v>0.78</v>
       </c>
       <c r="I3">
-        <v>0.83</v>
+        <v>0.731</v>
       </c>
       <c r="J3">
         <v>13</v>
@@ -1606,28 +1606,28 @@
         <v>111</v>
       </c>
       <c r="B4">
-        <v>0.999</v>
+        <v>0.977</v>
       </c>
       <c r="C4">
-        <v>0.994</v>
+        <v>0.947</v>
       </c>
       <c r="D4">
-        <v>0.977</v>
+        <v>0.917</v>
       </c>
       <c r="E4">
-        <v>0.947</v>
+        <v>0.885</v>
       </c>
       <c r="F4">
-        <v>0.985</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="G4">
-        <v>0.968</v>
+        <v>0.886</v>
       </c>
       <c r="H4">
-        <v>0.9320000000000001</v>
+        <v>0.841</v>
       </c>
       <c r="I4">
-        <v>0.886</v>
+        <v>0.796</v>
       </c>
       <c r="J4">
         <v>12</v>
@@ -1638,28 +1638,28 @@
         <v>112</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.973</v>
       </c>
       <c r="C5">
-        <v>0.993</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="D5">
-        <v>0.973</v>
+        <v>0.903</v>
       </c>
       <c r="E5">
-        <v>0.9379999999999999</v>
+        <v>0.866</v>
       </c>
       <c r="F5">
-        <v>0.986</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="G5">
-        <v>0.967</v>
+        <v>0.882</v>
       </c>
       <c r="H5">
-        <v>0.9320000000000001</v>
+        <v>0.832</v>
       </c>
       <c r="I5">
-        <v>0.882</v>
+        <v>0.785</v>
       </c>
       <c r="J5">
         <v>13</v>
@@ -1670,28 +1670,28 @@
         <v>113</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.985</v>
       </c>
       <c r="D6">
-        <v>0.998</v>
+        <v>0.967</v>
       </c>
       <c r="E6">
-        <v>0.985</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F6">
-        <v>0.987</v>
+        <v>0.949</v>
       </c>
       <c r="G6">
-        <v>0.973</v>
+        <v>0.914</v>
       </c>
       <c r="H6">
-        <v>0.949</v>
+        <v>0.873</v>
       </c>
       <c r="I6">
-        <v>0.914</v>
+        <v>0.829</v>
       </c>
       <c r="J6">
         <v>12</v>
@@ -1702,28 +1702,28 @@
         <v>114</v>
       </c>
       <c r="B7">
-        <v>0.958</v>
+        <v>0.951</v>
       </c>
       <c r="C7">
-        <v>0.952</v>
+        <v>0.947</v>
       </c>
       <c r="D7">
-        <v>0.951</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E7">
-        <v>0.947</v>
+        <v>0.926</v>
       </c>
       <c r="F7">
-        <v>0.947</v>
+        <v>0.907</v>
       </c>
       <c r="G7">
-        <v>0.928</v>
+        <v>0.88</v>
       </c>
       <c r="H7">
-        <v>0.907</v>
+        <v>0.85</v>
       </c>
       <c r="I7">
-        <v>0.88</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="J7">
         <v>13</v>
@@ -1734,28 +1734,28 @@
         <v>115</v>
       </c>
       <c r="B8">
-        <v>0.97</v>
+        <v>0.965</v>
       </c>
       <c r="C8">
-        <v>0.968</v>
+        <v>0.961</v>
       </c>
       <c r="D8">
-        <v>0.965</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="E8">
-        <v>0.961</v>
+        <v>0.925</v>
       </c>
       <c r="F8">
-        <v>0.957</v>
+        <v>0.923</v>
       </c>
       <c r="G8">
-        <v>0.9429999999999999</v>
+        <v>0.898</v>
       </c>
       <c r="H8">
-        <v>0.923</v>
+        <v>0.859</v>
       </c>
       <c r="I8">
-        <v>0.898</v>
+        <v>0.823</v>
       </c>
       <c r="J8">
         <v>12</v>
@@ -1766,28 +1766,28 @@
         <v>116</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.989</v>
       </c>
       <c r="D9">
-        <v>0.998</v>
+        <v>0.976</v>
       </c>
       <c r="E9">
-        <v>0.989</v>
+        <v>0.958</v>
       </c>
       <c r="F9">
-        <v>0.984</v>
+        <v>0.96</v>
       </c>
       <c r="G9">
-        <v>0.975</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="H9">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="I9">
-        <v>0.9330000000000001</v>
+        <v>0.863</v>
       </c>
       <c r="J9">
         <v>13</v>
@@ -1801,25 +1801,25 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.984</v>
       </c>
       <c r="E10">
-        <v>0.993</v>
+        <v>0.968</v>
       </c>
       <c r="F10">
-        <v>0.981</v>
+        <v>0.971</v>
       </c>
       <c r="G10">
-        <v>0.976</v>
+        <v>0.949</v>
       </c>
       <c r="H10">
-        <v>0.971</v>
+        <v>0.92</v>
       </c>
       <c r="I10">
-        <v>0.949</v>
+        <v>0.888</v>
       </c>
       <c r="J10">
         <v>12</v>
@@ -1830,28 +1830,28 @@
         <v>118</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="D11">
-        <v>0.998</v>
+        <v>0.984</v>
       </c>
       <c r="E11">
-        <v>0.994</v>
+        <v>0.972</v>
       </c>
       <c r="F11">
-        <v>0.981</v>
+        <v>0.97</v>
       </c>
       <c r="G11">
-        <v>0.976</v>
+        <v>0.951</v>
       </c>
       <c r="H11">
-        <v>0.97</v>
+        <v>0.922</v>
       </c>
       <c r="I11">
-        <v>0.951</v>
+        <v>0.891</v>
       </c>
       <c r="J11">
         <v>13</v>
@@ -1907,28 +1907,28 @@
         <v>119</v>
       </c>
       <c r="B2">
-        <v>0.958</v>
+        <v>0.799</v>
       </c>
       <c r="C2">
-        <v>0.882</v>
+        <v>0.722</v>
       </c>
       <c r="D2">
-        <v>0.799</v>
+        <v>0.66</v>
       </c>
       <c r="E2">
-        <v>0.722</v>
+        <v>0.627</v>
       </c>
       <c r="F2">
-        <v>0.949</v>
+        <v>0.774</v>
       </c>
       <c r="G2">
-        <v>0.864</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="H2">
-        <v>0.774</v>
+        <v>0.632</v>
       </c>
       <c r="I2">
-        <v>0.6929999999999999</v>
+        <v>0.601</v>
       </c>
       <c r="J2">
         <v>13</v>
@@ -1939,28 +1939,28 @@
         <v>120</v>
       </c>
       <c r="B3">
-        <v>0.973</v>
+        <v>0.926</v>
       </c>
       <c r="C3">
-        <v>0.958</v>
+        <v>0.886</v>
       </c>
       <c r="D3">
-        <v>0.926</v>
+        <v>0.848</v>
       </c>
       <c r="E3">
+        <v>0.8090000000000001</v>
+      </c>
+      <c r="F3">
         <v>0.886</v>
       </c>
-      <c r="F3">
-        <v>0.962</v>
-      </c>
       <c r="G3">
-        <v>0.9330000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="H3">
-        <v>0.886</v>
+        <v>0.78</v>
       </c>
       <c r="I3">
-        <v>0.83</v>
+        <v>0.731</v>
       </c>
       <c r="J3">
         <v>13</v>
@@ -1971,28 +1971,28 @@
         <v>121</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.982</v>
       </c>
       <c r="C4">
-        <v>0.996</v>
+        <v>0.952</v>
       </c>
       <c r="D4">
-        <v>0.982</v>
+        <v>0.918</v>
       </c>
       <c r="E4">
-        <v>0.952</v>
+        <v>0.888</v>
       </c>
       <c r="F4">
-        <v>0.986</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="G4">
-        <v>0.969</v>
+        <v>0.89</v>
       </c>
       <c r="H4">
-        <v>0.9360000000000001</v>
+        <v>0.841</v>
       </c>
       <c r="I4">
-        <v>0.89</v>
+        <v>0.797</v>
       </c>
       <c r="J4">
         <v>12</v>
@@ -2003,28 +2003,28 @@
         <v>122</v>
       </c>
       <c r="B5">
-        <v>0.999</v>
+        <v>0.969</v>
       </c>
       <c r="C5">
-        <v>0.991</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="D5">
-        <v>0.969</v>
+        <v>0.902</v>
       </c>
       <c r="E5">
-        <v>0.9340000000000001</v>
+        <v>0.864</v>
       </c>
       <c r="F5">
-        <v>0.985</v>
+        <v>0.928</v>
       </c>
       <c r="G5">
-        <v>0.966</v>
+        <v>0.879</v>
       </c>
       <c r="H5">
-        <v>0.928</v>
+        <v>0.832</v>
       </c>
       <c r="I5">
-        <v>0.879</v>
+        <v>0.784</v>
       </c>
       <c r="J5">
         <v>13</v>
@@ -2035,28 +2035,28 @@
         <v>123</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.987</v>
       </c>
       <c r="D6">
-        <v>0.998</v>
+        <v>0.971</v>
       </c>
       <c r="E6">
-        <v>0.987</v>
+        <v>0.946</v>
       </c>
       <c r="F6">
-        <v>0.987</v>
+        <v>0.949</v>
       </c>
       <c r="G6">
-        <v>0.973</v>
+        <v>0.916</v>
       </c>
       <c r="H6">
-        <v>0.949</v>
+        <v>0.876</v>
       </c>
       <c r="I6">
-        <v>0.916</v>
+        <v>0.834</v>
       </c>
       <c r="J6">
         <v>12</v>
@@ -2067,28 +2067,28 @@
         <v>124</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="D7">
-        <v>0.999</v>
+        <v>0.984</v>
       </c>
       <c r="E7">
-        <v>0.992</v>
+        <v>0.966</v>
       </c>
       <c r="F7">
-        <v>0.988</v>
+        <v>0.948</v>
       </c>
       <c r="G7">
-        <v>0.972</v>
+        <v>0.915</v>
       </c>
       <c r="H7">
-        <v>0.948</v>
+        <v>0.882</v>
       </c>
       <c r="I7">
-        <v>0.915</v>
+        <v>0.841</v>
       </c>
       <c r="J7">
         <v>13</v>
@@ -2099,28 +2099,28 @@
         <v>125</v>
       </c>
       <c r="B8">
-        <v>0.925</v>
+        <v>0.913</v>
       </c>
       <c r="C8">
-        <v>0.917</v>
+        <v>0.91</v>
       </c>
       <c r="D8">
-        <v>0.913</v>
+        <v>0.89</v>
       </c>
       <c r="E8">
-        <v>0.91</v>
+        <v>0.875</v>
       </c>
       <c r="F8">
-        <v>0.913</v>
+        <v>0.878</v>
       </c>
       <c r="G8">
-        <v>0.895</v>
+        <v>0.859</v>
       </c>
       <c r="H8">
-        <v>0.878</v>
+        <v>0.821</v>
       </c>
       <c r="I8">
-        <v>0.859</v>
+        <v>0.79</v>
       </c>
       <c r="J8">
         <v>12</v>
@@ -2131,28 +2131,28 @@
         <v>126</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.991</v>
       </c>
       <c r="D9">
-        <v>0.998</v>
+        <v>0.983</v>
       </c>
       <c r="E9">
-        <v>0.991</v>
+        <v>0.97</v>
       </c>
       <c r="F9">
-        <v>0.983</v>
+        <v>0.962</v>
       </c>
       <c r="G9">
-        <v>0.975</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="H9">
-        <v>0.962</v>
+        <v>0.909</v>
       </c>
       <c r="I9">
-        <v>0.9379999999999999</v>
+        <v>0.876</v>
       </c>
       <c r="J9">
         <v>13</v>
@@ -2166,25 +2166,25 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.976</v>
       </c>
       <c r="E10">
-        <v>0.992</v>
+        <v>0.956</v>
       </c>
       <c r="F10">
-        <v>0.981</v>
+        <v>0.97</v>
       </c>
       <c r="G10">
-        <v>0.976</v>
+        <v>0.948</v>
       </c>
       <c r="H10">
-        <v>0.97</v>
+        <v>0.914</v>
       </c>
       <c r="I10">
-        <v>0.948</v>
+        <v>0.879</v>
       </c>
       <c r="J10">
         <v>12</v>
@@ -2195,28 +2195,28 @@
         <v>128</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="D11">
-        <v>0.998</v>
+        <v>0.984</v>
       </c>
       <c r="E11">
-        <v>0.994</v>
+        <v>0.971</v>
       </c>
       <c r="F11">
-        <v>0.982</v>
+        <v>0.968</v>
       </c>
       <c r="G11">
-        <v>0.976</v>
+        <v>0.947</v>
       </c>
       <c r="H11">
-        <v>0.968</v>
+        <v>0.918</v>
       </c>
       <c r="I11">
-        <v>0.947</v>
+        <v>0.886</v>
       </c>
       <c r="J11">
         <v>13</v>
@@ -2272,28 +2272,28 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="D2">
-        <v>0.998</v>
+        <v>0.984</v>
       </c>
       <c r="E2">
-        <v>0.993</v>
+        <v>0.972</v>
       </c>
       <c r="F2">
-        <v>0.981</v>
+        <v>0.97</v>
       </c>
       <c r="G2">
-        <v>0.976</v>
+        <v>0.95</v>
       </c>
       <c r="H2">
-        <v>0.97</v>
+        <v>0.922</v>
       </c>
       <c r="I2">
-        <v>0.95</v>
+        <v>0.891</v>
       </c>
       <c r="J2">
         <v>13</v>
@@ -2307,25 +2307,25 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.985</v>
       </c>
       <c r="E3">
-        <v>0.994</v>
+        <v>0.97</v>
       </c>
       <c r="F3">
-        <v>0.981</v>
+        <v>0.971</v>
       </c>
       <c r="G3">
-        <v>0.976</v>
+        <v>0.95</v>
       </c>
       <c r="H3">
-        <v>0.971</v>
+        <v>0.922</v>
       </c>
       <c r="I3">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="J3">
         <v>13</v>
@@ -2336,28 +2336,28 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.988</v>
       </c>
       <c r="D4">
-        <v>0.998</v>
+        <v>0.974</v>
       </c>
       <c r="E4">
-        <v>0.988</v>
+        <v>0.955</v>
       </c>
       <c r="F4">
-        <v>0.984</v>
+        <v>0.958</v>
       </c>
       <c r="G4">
-        <v>0.975</v>
+        <v>0.931</v>
       </c>
       <c r="H4">
-        <v>0.958</v>
+        <v>0.896</v>
       </c>
       <c r="I4">
-        <v>0.931</v>
+        <v>0.858</v>
       </c>
       <c r="J4">
         <v>12</v>
@@ -2368,28 +2368,28 @@
         <v>23</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="D5">
-        <v>0.997</v>
+        <v>0.972</v>
       </c>
       <c r="E5">
-        <v>0.99</v>
+        <v>0.957</v>
       </c>
       <c r="F5">
-        <v>0.987</v>
+        <v>0.95</v>
       </c>
       <c r="G5">
-        <v>0.973</v>
+        <v>0.92</v>
       </c>
       <c r="H5">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="I5">
-        <v>0.92</v>
+        <v>0.843</v>
       </c>
       <c r="J5">
         <v>13</v>
@@ -2400,28 +2400,28 @@
         <v>24</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.989</v>
       </c>
       <c r="D6">
-        <v>0.998</v>
+        <v>0.975</v>
       </c>
       <c r="E6">
-        <v>0.989</v>
+        <v>0.949</v>
       </c>
       <c r="F6">
-        <v>0.988</v>
+        <v>0.948</v>
       </c>
       <c r="G6">
-        <v>0.972</v>
+        <v>0.913</v>
       </c>
       <c r="H6">
-        <v>0.948</v>
+        <v>0.875</v>
       </c>
       <c r="I6">
-        <v>0.913</v>
+        <v>0.831</v>
       </c>
       <c r="J6">
         <v>12</v>
@@ -2432,28 +2432,28 @@
         <v>25</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="C7">
-        <v>0.998</v>
+        <v>0.978</v>
       </c>
       <c r="D7">
-        <v>0.993</v>
+        <v>0.96</v>
       </c>
       <c r="E7">
-        <v>0.978</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="F7">
-        <v>0.987</v>
+        <v>0.947</v>
       </c>
       <c r="G7">
-        <v>0.971</v>
+        <v>0.911</v>
       </c>
       <c r="H7">
-        <v>0.947</v>
+        <v>0.871</v>
       </c>
       <c r="I7">
-        <v>0.911</v>
+        <v>0.827</v>
       </c>
       <c r="J7">
         <v>13</v>
@@ -2464,28 +2464,28 @@
         <v>26</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.977</v>
       </c>
       <c r="C8">
-        <v>0.997</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="D8">
-        <v>0.977</v>
+        <v>0.905</v>
       </c>
       <c r="E8">
-        <v>0.9389999999999999</v>
+        <v>0.865</v>
       </c>
       <c r="F8">
-        <v>0.986</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="G8">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="H8">
-        <v>0.9350000000000001</v>
+        <v>0.829</v>
       </c>
       <c r="I8">
-        <v>0.88</v>
+        <v>0.781</v>
       </c>
       <c r="J8">
         <v>12</v>
@@ -2496,28 +2496,28 @@
         <v>27</v>
       </c>
       <c r="B9">
-        <v>0.999</v>
+        <v>0.965</v>
       </c>
       <c r="C9">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="D9">
-        <v>0.965</v>
+        <v>0.898</v>
       </c>
       <c r="E9">
-        <v>0.93</v>
+        <v>0.862</v>
       </c>
       <c r="F9">
-        <v>0.986</v>
+        <v>0.921</v>
       </c>
       <c r="G9">
-        <v>0.964</v>
+        <v>0.869</v>
       </c>
       <c r="H9">
-        <v>0.921</v>
+        <v>0.823</v>
       </c>
       <c r="I9">
-        <v>0.869</v>
+        <v>0.775</v>
       </c>
       <c r="J9">
         <v>13</v>
@@ -2528,28 +2528,28 @@
         <v>28</v>
       </c>
       <c r="B10">
-        <v>0.924</v>
+        <v>0.885</v>
       </c>
       <c r="C10">
-        <v>0.907</v>
+        <v>0.854</v>
       </c>
       <c r="D10">
-        <v>0.885</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="E10">
-        <v>0.854</v>
+        <v>0.786</v>
       </c>
       <c r="F10">
-        <v>0.913</v>
+        <v>0.852</v>
       </c>
       <c r="G10">
-        <v>0.886</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H10">
-        <v>0.852</v>
+        <v>0.759</v>
       </c>
       <c r="I10">
-        <v>0.8100000000000001</v>
+        <v>0.721</v>
       </c>
       <c r="J10">
         <v>12</v>
@@ -2560,28 +2560,28 @@
         <v>29</v>
       </c>
       <c r="B11">
-        <v>0.9320000000000001</v>
+        <v>0.767</v>
       </c>
       <c r="C11">
-        <v>0.852</v>
+        <v>0.698</v>
       </c>
       <c r="D11">
-        <v>0.767</v>
+        <v>0.645</v>
       </c>
       <c r="E11">
-        <v>0.698</v>
+        <v>0.615</v>
       </c>
       <c r="F11">
-        <v>0.924</v>
+        <v>0.745</v>
       </c>
       <c r="G11">
-        <v>0.835</v>
+        <v>0.674</v>
       </c>
       <c r="H11">
-        <v>0.745</v>
+        <v>0.62</v>
       </c>
       <c r="I11">
-        <v>0.674</v>
+        <v>0.592</v>
       </c>
       <c r="J11">
         <v>13</v>
@@ -2637,28 +2637,28 @@
         <v>30</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="D2">
-        <v>0.998</v>
+        <v>0.984</v>
       </c>
       <c r="E2">
-        <v>0.993</v>
+        <v>0.972</v>
       </c>
       <c r="F2">
-        <v>0.981</v>
+        <v>0.97</v>
       </c>
       <c r="G2">
-        <v>0.976</v>
+        <v>0.95</v>
       </c>
       <c r="H2">
-        <v>0.97</v>
+        <v>0.922</v>
       </c>
       <c r="I2">
-        <v>0.95</v>
+        <v>0.891</v>
       </c>
       <c r="J2">
         <v>13</v>
@@ -2672,25 +2672,25 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.985</v>
       </c>
       <c r="E3">
-        <v>0.994</v>
+        <v>0.97</v>
       </c>
       <c r="F3">
-        <v>0.981</v>
+        <v>0.971</v>
       </c>
       <c r="G3">
-        <v>0.976</v>
+        <v>0.95</v>
       </c>
       <c r="H3">
-        <v>0.971</v>
+        <v>0.922</v>
       </c>
       <c r="I3">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="J3">
         <v>13</v>
@@ -2701,28 +2701,28 @@
         <v>32</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.988</v>
       </c>
       <c r="D4">
-        <v>0.998</v>
+        <v>0.974</v>
       </c>
       <c r="E4">
-        <v>0.988</v>
+        <v>0.955</v>
       </c>
       <c r="F4">
-        <v>0.984</v>
+        <v>0.958</v>
       </c>
       <c r="G4">
-        <v>0.975</v>
+        <v>0.931</v>
       </c>
       <c r="H4">
-        <v>0.958</v>
+        <v>0.896</v>
       </c>
       <c r="I4">
-        <v>0.931</v>
+        <v>0.858</v>
       </c>
       <c r="J4">
         <v>12</v>
@@ -2733,28 +2733,28 @@
         <v>33</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="D5">
-        <v>0.997</v>
+        <v>0.972</v>
       </c>
       <c r="E5">
-        <v>0.99</v>
+        <v>0.957</v>
       </c>
       <c r="F5">
-        <v>0.987</v>
+        <v>0.95</v>
       </c>
       <c r="G5">
-        <v>0.973</v>
+        <v>0.92</v>
       </c>
       <c r="H5">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="I5">
-        <v>0.92</v>
+        <v>0.843</v>
       </c>
       <c r="J5">
         <v>13</v>
@@ -2765,28 +2765,28 @@
         <v>34</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="D6">
-        <v>0.998</v>
+        <v>0.977</v>
       </c>
       <c r="E6">
-        <v>0.99</v>
+        <v>0.953</v>
       </c>
       <c r="F6">
-        <v>0.988</v>
+        <v>0.948</v>
       </c>
       <c r="G6">
-        <v>0.972</v>
+        <v>0.914</v>
       </c>
       <c r="H6">
-        <v>0.948</v>
+        <v>0.877</v>
       </c>
       <c r="I6">
-        <v>0.914</v>
+        <v>0.834</v>
       </c>
       <c r="J6">
         <v>12</v>
@@ -2797,28 +2797,28 @@
         <v>35</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="C7">
-        <v>0.999</v>
+        <v>0.983</v>
       </c>
       <c r="D7">
-        <v>0.995</v>
+        <v>0.967</v>
       </c>
       <c r="E7">
-        <v>0.983</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="F7">
-        <v>0.986</v>
+        <v>0.95</v>
       </c>
       <c r="G7">
-        <v>0.973</v>
+        <v>0.918</v>
       </c>
       <c r="H7">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="I7">
-        <v>0.918</v>
+        <v>0.838</v>
       </c>
       <c r="J7">
         <v>13</v>
@@ -2829,28 +2829,28 @@
         <v>36</v>
       </c>
       <c r="B8">
-        <v>0.951</v>
+        <v>0.921</v>
       </c>
       <c r="C8">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="D8">
-        <v>0.921</v>
+        <v>0.854</v>
       </c>
       <c r="E8">
-        <v>0.89</v>
+        <v>0.819</v>
       </c>
       <c r="F8">
-        <v>0.9389999999999999</v>
+        <v>0.884</v>
       </c>
       <c r="G8">
-        <v>0.917</v>
+        <v>0.837</v>
       </c>
       <c r="H8">
-        <v>0.884</v>
+        <v>0.788</v>
       </c>
       <c r="I8">
-        <v>0.837</v>
+        <v>0.745</v>
       </c>
       <c r="J8">
         <v>12</v>
@@ -2861,28 +2861,28 @@
         <v>37</v>
       </c>
       <c r="B9">
-        <v>0.974</v>
+        <v>0.946</v>
       </c>
       <c r="C9">
-        <v>0.966</v>
+        <v>0.917</v>
       </c>
       <c r="D9">
-        <v>0.946</v>
+        <v>0.887</v>
       </c>
       <c r="E9">
-        <v>0.917</v>
+        <v>0.855</v>
       </c>
       <c r="F9">
-        <v>0.962</v>
+        <v>0.903</v>
       </c>
       <c r="G9">
-        <v>0.9409999999999999</v>
+        <v>0.859</v>
       </c>
       <c r="H9">
-        <v>0.903</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="I9">
-        <v>0.859</v>
+        <v>0.77</v>
       </c>
       <c r="J9">
         <v>13</v>
@@ -2893,28 +2893,28 @@
         <v>38</v>
       </c>
       <c r="B10">
-        <v>0.999</v>
+        <v>0.96</v>
       </c>
       <c r="C10">
-        <v>0.99</v>
+        <v>0.909</v>
       </c>
       <c r="D10">
-        <v>0.96</v>
+        <v>0.863</v>
       </c>
       <c r="E10">
-        <v>0.909</v>
+        <v>0.823</v>
       </c>
       <c r="F10">
-        <v>0.986</v>
+        <v>0.917</v>
       </c>
       <c r="G10">
-        <v>0.964</v>
+        <v>0.852</v>
       </c>
       <c r="H10">
-        <v>0.917</v>
+        <v>0.794</v>
       </c>
       <c r="I10">
-        <v>0.852</v>
+        <v>0.746</v>
       </c>
       <c r="J10">
         <v>12</v>
@@ -2925,28 +2925,28 @@
         <v>39</v>
       </c>
       <c r="B11">
-        <v>0.9330000000000001</v>
+        <v>0.768</v>
       </c>
       <c r="C11">
-        <v>0.85</v>
+        <v>0.702</v>
       </c>
       <c r="D11">
-        <v>0.768</v>
+        <v>0.647</v>
       </c>
       <c r="E11">
-        <v>0.702</v>
+        <v>0.618</v>
       </c>
       <c r="F11">
-        <v>0.924</v>
+        <v>0.746</v>
       </c>
       <c r="G11">
-        <v>0.834</v>
+        <v>0.677</v>
       </c>
       <c r="H11">
-        <v>0.746</v>
+        <v>0.622</v>
       </c>
       <c r="I11">
-        <v>0.677</v>
+        <v>0.594</v>
       </c>
       <c r="J11">
         <v>13</v>
@@ -3002,28 +3002,28 @@
         <v>40</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="D2">
-        <v>0.998</v>
+        <v>0.984</v>
       </c>
       <c r="E2">
-        <v>0.993</v>
+        <v>0.972</v>
       </c>
       <c r="F2">
-        <v>0.981</v>
+        <v>0.97</v>
       </c>
       <c r="G2">
-        <v>0.976</v>
+        <v>0.95</v>
       </c>
       <c r="H2">
-        <v>0.97</v>
+        <v>0.922</v>
       </c>
       <c r="I2">
-        <v>0.95</v>
+        <v>0.891</v>
       </c>
       <c r="J2">
         <v>13</v>
@@ -3037,25 +3037,25 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.985</v>
       </c>
       <c r="E3">
-        <v>0.994</v>
+        <v>0.97</v>
       </c>
       <c r="F3">
-        <v>0.981</v>
+        <v>0.971</v>
       </c>
       <c r="G3">
-        <v>0.976</v>
+        <v>0.95</v>
       </c>
       <c r="H3">
-        <v>0.971</v>
+        <v>0.922</v>
       </c>
       <c r="I3">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="J3">
         <v>13</v>
@@ -3066,28 +3066,28 @@
         <v>42</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.988</v>
       </c>
       <c r="D4">
-        <v>0.998</v>
+        <v>0.974</v>
       </c>
       <c r="E4">
-        <v>0.988</v>
+        <v>0.955</v>
       </c>
       <c r="F4">
-        <v>0.984</v>
+        <v>0.958</v>
       </c>
       <c r="G4">
-        <v>0.975</v>
+        <v>0.931</v>
       </c>
       <c r="H4">
-        <v>0.958</v>
+        <v>0.896</v>
       </c>
       <c r="I4">
-        <v>0.931</v>
+        <v>0.858</v>
       </c>
       <c r="J4">
         <v>12</v>
@@ -3098,28 +3098,28 @@
         <v>43</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="D5">
-        <v>0.997</v>
+        <v>0.972</v>
       </c>
       <c r="E5">
-        <v>0.99</v>
+        <v>0.957</v>
       </c>
       <c r="F5">
-        <v>0.987</v>
+        <v>0.95</v>
       </c>
       <c r="G5">
-        <v>0.973</v>
+        <v>0.92</v>
       </c>
       <c r="H5">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="I5">
-        <v>0.92</v>
+        <v>0.843</v>
       </c>
       <c r="J5">
         <v>13</v>
@@ -3130,28 +3130,28 @@
         <v>44</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="D6">
-        <v>0.998</v>
+        <v>0.977</v>
       </c>
       <c r="E6">
-        <v>0.99</v>
+        <v>0.953</v>
       </c>
       <c r="F6">
-        <v>0.988</v>
+        <v>0.948</v>
       </c>
       <c r="G6">
-        <v>0.972</v>
+        <v>0.914</v>
       </c>
       <c r="H6">
-        <v>0.948</v>
+        <v>0.877</v>
       </c>
       <c r="I6">
-        <v>0.914</v>
+        <v>0.834</v>
       </c>
       <c r="J6">
         <v>12</v>
@@ -3162,28 +3162,28 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>0.955</v>
+        <v>0.944</v>
       </c>
       <c r="C7">
-        <v>0.948</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="D7">
-        <v>0.944</v>
+        <v>0.919</v>
       </c>
       <c r="E7">
-        <v>0.9360000000000001</v>
+        <v>0.894</v>
       </c>
       <c r="F7">
-        <v>0.9429999999999999</v>
+        <v>0.904</v>
       </c>
       <c r="G7">
-        <v>0.925</v>
+        <v>0.878</v>
       </c>
       <c r="H7">
-        <v>0.904</v>
+        <v>0.841</v>
       </c>
       <c r="I7">
-        <v>0.878</v>
+        <v>0.801</v>
       </c>
       <c r="J7">
         <v>13</v>
@@ -3194,28 +3194,28 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>0.973</v>
+        <v>0.947</v>
       </c>
       <c r="C8">
-        <v>0.965</v>
+        <v>0.914</v>
       </c>
       <c r="D8">
-        <v>0.947</v>
+        <v>0.88</v>
       </c>
       <c r="E8">
-        <v>0.914</v>
+        <v>0.848</v>
       </c>
       <c r="F8">
-        <v>0.96</v>
+        <v>0.909</v>
       </c>
       <c r="G8">
-        <v>0.9409999999999999</v>
+        <v>0.861</v>
       </c>
       <c r="H8">
-        <v>0.909</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="I8">
-        <v>0.861</v>
+        <v>0.77</v>
       </c>
       <c r="J8">
         <v>12</v>
@@ -3226,28 +3226,28 @@
         <v>47</v>
       </c>
       <c r="B9">
-        <v>0.999</v>
+        <v>0.977</v>
       </c>
       <c r="C9">
-        <v>0.995</v>
+        <v>0.946</v>
       </c>
       <c r="D9">
-        <v>0.977</v>
+        <v>0.916</v>
       </c>
       <c r="E9">
-        <v>0.946</v>
+        <v>0.884</v>
       </c>
       <c r="F9">
-        <v>0.985</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="G9">
-        <v>0.968</v>
+        <v>0.885</v>
       </c>
       <c r="H9">
-        <v>0.9320000000000001</v>
+        <v>0.839</v>
       </c>
       <c r="I9">
-        <v>0.885</v>
+        <v>0.793</v>
       </c>
       <c r="J9">
         <v>13</v>
@@ -3258,28 +3258,28 @@
         <v>48</v>
       </c>
       <c r="B10">
-        <v>0.999</v>
+        <v>0.955</v>
       </c>
       <c r="C10">
-        <v>0.989</v>
+        <v>0.904</v>
       </c>
       <c r="D10">
-        <v>0.955</v>
+        <v>0.858</v>
       </c>
       <c r="E10">
-        <v>0.904</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="F10">
-        <v>0.987</v>
+        <v>0.912</v>
       </c>
       <c r="G10">
-        <v>0.962</v>
+        <v>0.845</v>
       </c>
       <c r="H10">
-        <v>0.912</v>
+        <v>0.787</v>
       </c>
       <c r="I10">
-        <v>0.845</v>
+        <v>0.736</v>
       </c>
       <c r="J10">
         <v>12</v>
@@ -3290,28 +3290,28 @@
         <v>49</v>
       </c>
       <c r="B11">
-        <v>0.9330000000000001</v>
+        <v>0.768</v>
       </c>
       <c r="C11">
-        <v>0.85</v>
+        <v>0.702</v>
       </c>
       <c r="D11">
-        <v>0.768</v>
+        <v>0.647</v>
       </c>
       <c r="E11">
-        <v>0.702</v>
+        <v>0.618</v>
       </c>
       <c r="F11">
-        <v>0.924</v>
+        <v>0.746</v>
       </c>
       <c r="G11">
-        <v>0.834</v>
+        <v>0.677</v>
       </c>
       <c r="H11">
-        <v>0.746</v>
+        <v>0.622</v>
       </c>
       <c r="I11">
-        <v>0.677</v>
+        <v>0.594</v>
       </c>
       <c r="J11">
         <v>13</v>
@@ -3367,28 +3367,28 @@
         <v>50</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="D2">
-        <v>0.998</v>
+        <v>0.984</v>
       </c>
       <c r="E2">
-        <v>0.994</v>
+        <v>0.972</v>
       </c>
       <c r="F2">
-        <v>0.981</v>
+        <v>0.97</v>
       </c>
       <c r="G2">
-        <v>0.976</v>
+        <v>0.951</v>
       </c>
       <c r="H2">
-        <v>0.97</v>
+        <v>0.922</v>
       </c>
       <c r="I2">
-        <v>0.951</v>
+        <v>0.891</v>
       </c>
       <c r="J2">
         <v>13</v>
@@ -3402,25 +3402,25 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.985</v>
       </c>
       <c r="E3">
-        <v>0.993</v>
+        <v>0.969</v>
       </c>
       <c r="F3">
-        <v>0.982</v>
+        <v>0.969</v>
       </c>
       <c r="G3">
-        <v>0.976</v>
+        <v>0.946</v>
       </c>
       <c r="H3">
-        <v>0.969</v>
+        <v>0.918</v>
       </c>
       <c r="I3">
-        <v>0.946</v>
+        <v>0.885</v>
       </c>
       <c r="J3">
         <v>13</v>
@@ -3431,28 +3431,28 @@
         <v>52</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.988</v>
       </c>
       <c r="D4">
-        <v>0.998</v>
+        <v>0.974</v>
       </c>
       <c r="E4">
-        <v>0.988</v>
+        <v>0.955</v>
       </c>
       <c r="F4">
-        <v>0.983</v>
+        <v>0.961</v>
       </c>
       <c r="G4">
-        <v>0.975</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="H4">
-        <v>0.961</v>
+        <v>0.9</v>
       </c>
       <c r="I4">
-        <v>0.9350000000000001</v>
+        <v>0.864</v>
       </c>
       <c r="J4">
         <v>12</v>
@@ -3463,28 +3463,28 @@
         <v>53</v>
       </c>
       <c r="B5">
-        <v>0.972</v>
+        <v>0.968</v>
       </c>
       <c r="C5">
-        <v>0.971</v>
+        <v>0.964</v>
       </c>
       <c r="D5">
-        <v>0.968</v>
+        <v>0.946</v>
       </c>
       <c r="E5">
-        <v>0.964</v>
+        <v>0.93</v>
       </c>
       <c r="F5">
-        <v>0.959</v>
+        <v>0.925</v>
       </c>
       <c r="G5">
-        <v>0.946</v>
+        <v>0.9</v>
       </c>
       <c r="H5">
-        <v>0.925</v>
+        <v>0.861</v>
       </c>
       <c r="I5">
-        <v>0.9</v>
+        <v>0.826</v>
       </c>
       <c r="J5">
         <v>13</v>
@@ -3495,28 +3495,28 @@
         <v>54</v>
       </c>
       <c r="B6">
-        <v>0.955</v>
+        <v>0.947</v>
       </c>
       <c r="C6">
-        <v>0.948</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="D6">
-        <v>0.947</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="E6">
-        <v>0.9419999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="F6">
-        <v>0.944</v>
+        <v>0.903</v>
       </c>
       <c r="G6">
-        <v>0.924</v>
+        <v>0.877</v>
       </c>
       <c r="H6">
-        <v>0.903</v>
+        <v>0.847</v>
       </c>
       <c r="I6">
-        <v>0.877</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J6">
         <v>12</v>
@@ -3527,28 +3527,28 @@
         <v>47</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="C7">
-        <v>0.999</v>
+        <v>0.982</v>
       </c>
       <c r="D7">
-        <v>0.995</v>
+        <v>0.961</v>
       </c>
       <c r="E7">
-        <v>0.982</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="F7">
-        <v>0.987</v>
+        <v>0.947</v>
       </c>
       <c r="G7">
-        <v>0.972</v>
+        <v>0.911</v>
       </c>
       <c r="H7">
-        <v>0.947</v>
+        <v>0.868</v>
       </c>
       <c r="I7">
-        <v>0.911</v>
+        <v>0.824</v>
       </c>
       <c r="J7">
         <v>13</v>
@@ -3559,28 +3559,28 @@
         <v>55</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.974</v>
       </c>
       <c r="C8">
-        <v>0.993</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="D8">
-        <v>0.974</v>
+        <v>0.904</v>
       </c>
       <c r="E8">
-        <v>0.9389999999999999</v>
+        <v>0.867</v>
       </c>
       <c r="F8">
-        <v>0.986</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="G8">
-        <v>0.967</v>
+        <v>0.883</v>
       </c>
       <c r="H8">
-        <v>0.9340000000000001</v>
+        <v>0.834</v>
       </c>
       <c r="I8">
-        <v>0.883</v>
+        <v>0.787</v>
       </c>
       <c r="J8">
         <v>12</v>
@@ -3591,28 +3591,28 @@
         <v>56</v>
       </c>
       <c r="B9">
-        <v>0.999</v>
+        <v>0.977</v>
       </c>
       <c r="C9">
-        <v>0.995</v>
+        <v>0.946</v>
       </c>
       <c r="D9">
-        <v>0.977</v>
+        <v>0.916</v>
       </c>
       <c r="E9">
-        <v>0.946</v>
+        <v>0.884</v>
       </c>
       <c r="F9">
-        <v>0.985</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="G9">
-        <v>0.968</v>
+        <v>0.885</v>
       </c>
       <c r="H9">
-        <v>0.9320000000000001</v>
+        <v>0.839</v>
       </c>
       <c r="I9">
-        <v>0.885</v>
+        <v>0.793</v>
       </c>
       <c r="J9">
         <v>13</v>
@@ -3623,28 +3623,28 @@
         <v>57</v>
       </c>
       <c r="B10">
-        <v>0.971</v>
+        <v>0.922</v>
       </c>
       <c r="C10">
-        <v>0.955</v>
+        <v>0.882</v>
       </c>
       <c r="D10">
-        <v>0.922</v>
+        <v>0.844</v>
       </c>
       <c r="E10">
+        <v>0.805</v>
+      </c>
+      <c r="F10">
         <v>0.882</v>
       </c>
-      <c r="F10">
-        <v>0.96</v>
-      </c>
       <c r="G10">
-        <v>0.93</v>
+        <v>0.827</v>
       </c>
       <c r="H10">
-        <v>0.882</v>
+        <v>0.776</v>
       </c>
       <c r="I10">
-        <v>0.827</v>
+        <v>0.729</v>
       </c>
       <c r="J10">
         <v>12</v>
@@ -3655,28 +3655,28 @@
         <v>58</v>
       </c>
       <c r="B11">
-        <v>0.958</v>
+        <v>0.799</v>
       </c>
       <c r="C11">
-        <v>0.882</v>
+        <v>0.722</v>
       </c>
       <c r="D11">
-        <v>0.799</v>
+        <v>0.66</v>
       </c>
       <c r="E11">
-        <v>0.722</v>
+        <v>0.627</v>
       </c>
       <c r="F11">
-        <v>0.949</v>
+        <v>0.774</v>
       </c>
       <c r="G11">
-        <v>0.864</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="H11">
-        <v>0.774</v>
+        <v>0.632</v>
       </c>
       <c r="I11">
-        <v>0.6929999999999999</v>
+        <v>0.601</v>
       </c>
       <c r="J11">
         <v>13</v>
@@ -3732,28 +3732,28 @@
         <v>59</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="D2">
-        <v>0.998</v>
+        <v>0.984</v>
       </c>
       <c r="E2">
-        <v>0.994</v>
+        <v>0.971</v>
       </c>
       <c r="F2">
-        <v>0.982</v>
+        <v>0.968</v>
       </c>
       <c r="G2">
-        <v>0.976</v>
+        <v>0.947</v>
       </c>
       <c r="H2">
-        <v>0.968</v>
+        <v>0.918</v>
       </c>
       <c r="I2">
-        <v>0.947</v>
+        <v>0.886</v>
       </c>
       <c r="J2">
         <v>13</v>
@@ -3767,25 +3767,25 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.977</v>
       </c>
       <c r="E3">
-        <v>0.992</v>
+        <v>0.959</v>
       </c>
       <c r="F3">
-        <v>0.981</v>
+        <v>0.971</v>
       </c>
       <c r="G3">
-        <v>0.976</v>
+        <v>0.948</v>
       </c>
       <c r="H3">
-        <v>0.971</v>
+        <v>0.916</v>
       </c>
       <c r="I3">
-        <v>0.948</v>
+        <v>0.882</v>
       </c>
       <c r="J3">
         <v>13</v>
@@ -3796,28 +3796,28 @@
         <v>61</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="D4">
-        <v>0.998</v>
+        <v>0.982</v>
       </c>
       <c r="E4">
-        <v>0.99</v>
+        <v>0.967</v>
       </c>
       <c r="F4">
-        <v>0.983</v>
+        <v>0.961</v>
       </c>
       <c r="G4">
-        <v>0.975</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="H4">
-        <v>0.961</v>
+        <v>0.907</v>
       </c>
       <c r="I4">
-        <v>0.9360000000000001</v>
+        <v>0.872</v>
       </c>
       <c r="J4">
         <v>12</v>
@@ -3828,28 +3828,28 @@
         <v>62</v>
       </c>
       <c r="B5">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="C5">
-        <v>0.923</v>
+        <v>0.917</v>
       </c>
       <c r="D5">
-        <v>0.92</v>
+        <v>0.898</v>
       </c>
       <c r="E5">
-        <v>0.917</v>
+        <v>0.883</v>
       </c>
       <c r="F5">
-        <v>0.919</v>
+        <v>0.883</v>
       </c>
       <c r="G5">
-        <v>0.901</v>
+        <v>0.863</v>
       </c>
       <c r="H5">
-        <v>0.883</v>
+        <v>0.826</v>
       </c>
       <c r="I5">
-        <v>0.863</v>
+        <v>0.794</v>
       </c>
       <c r="J5">
         <v>13</v>
@@ -3860,28 +3860,28 @@
         <v>63</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.991</v>
       </c>
       <c r="D6">
-        <v>0.999</v>
+        <v>0.983</v>
       </c>
       <c r="E6">
-        <v>0.991</v>
+        <v>0.965</v>
       </c>
       <c r="F6">
-        <v>0.988</v>
+        <v>0.948</v>
       </c>
       <c r="G6">
-        <v>0.972</v>
+        <v>0.915</v>
       </c>
       <c r="H6">
-        <v>0.948</v>
+        <v>0.881</v>
       </c>
       <c r="I6">
-        <v>0.915</v>
+        <v>0.84</v>
       </c>
       <c r="J6">
         <v>12</v>
@@ -3892,28 +3892,28 @@
         <v>64</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="C7">
-        <v>0.999</v>
+        <v>0.983</v>
       </c>
       <c r="D7">
-        <v>0.995</v>
+        <v>0.965</v>
       </c>
       <c r="E7">
-        <v>0.983</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="F7">
-        <v>0.987</v>
+        <v>0.947</v>
       </c>
       <c r="G7">
-        <v>0.972</v>
+        <v>0.912</v>
       </c>
       <c r="H7">
-        <v>0.947</v>
+        <v>0.871</v>
       </c>
       <c r="I7">
-        <v>0.912</v>
+        <v>0.829</v>
       </c>
       <c r="J7">
         <v>13</v>
@@ -3924,28 +3924,28 @@
         <v>65</v>
       </c>
       <c r="B8">
-        <v>0.999</v>
+        <v>0.969</v>
       </c>
       <c r="C8">
-        <v>0.991</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="D8">
-        <v>0.969</v>
+        <v>0.903</v>
       </c>
       <c r="E8">
-        <v>0.9340000000000001</v>
+        <v>0.865</v>
       </c>
       <c r="F8">
-        <v>0.984</v>
+        <v>0.929</v>
       </c>
       <c r="G8">
-        <v>0.966</v>
+        <v>0.879</v>
       </c>
       <c r="H8">
-        <v>0.929</v>
+        <v>0.834</v>
       </c>
       <c r="I8">
-        <v>0.879</v>
+        <v>0.786</v>
       </c>
       <c r="J8">
         <v>12</v>
@@ -3956,28 +3956,28 @@
         <v>66</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0.983</v>
       </c>
       <c r="C9">
-        <v>0.996</v>
+        <v>0.955</v>
       </c>
       <c r="D9">
-        <v>0.983</v>
+        <v>0.922</v>
       </c>
       <c r="E9">
-        <v>0.955</v>
+        <v>0.893</v>
       </c>
       <c r="F9">
-        <v>0.986</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="G9">
-        <v>0.97</v>
+        <v>0.895</v>
       </c>
       <c r="H9">
-        <v>0.9389999999999999</v>
+        <v>0.847</v>
       </c>
       <c r="I9">
-        <v>0.895</v>
+        <v>0.805</v>
       </c>
       <c r="J9">
         <v>13</v>
@@ -3988,28 +3988,28 @@
         <v>67</v>
       </c>
       <c r="B10">
-        <v>0.971</v>
+        <v>0.92</v>
       </c>
       <c r="C10">
-        <v>0.955</v>
+        <v>0.878</v>
       </c>
       <c r="D10">
-        <v>0.92</v>
+        <v>0.839</v>
       </c>
       <c r="E10">
-        <v>0.878</v>
+        <v>0.797</v>
       </c>
       <c r="F10">
-        <v>0.961</v>
+        <v>0.879</v>
       </c>
       <c r="G10">
-        <v>0.93</v>
+        <v>0.821</v>
       </c>
       <c r="H10">
-        <v>0.879</v>
+        <v>0.768</v>
       </c>
       <c r="I10">
-        <v>0.821</v>
+        <v>0.718</v>
       </c>
       <c r="J10">
         <v>12</v>
@@ -4020,28 +4020,28 @@
         <v>68</v>
       </c>
       <c r="B11">
-        <v>0.958</v>
+        <v>0.799</v>
       </c>
       <c r="C11">
-        <v>0.882</v>
+        <v>0.722</v>
       </c>
       <c r="D11">
-        <v>0.799</v>
+        <v>0.66</v>
       </c>
       <c r="E11">
-        <v>0.722</v>
+        <v>0.627</v>
       </c>
       <c r="F11">
-        <v>0.949</v>
+        <v>0.774</v>
       </c>
       <c r="G11">
-        <v>0.864</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="H11">
-        <v>0.774</v>
+        <v>0.632</v>
       </c>
       <c r="I11">
-        <v>0.6929999999999999</v>
+        <v>0.601</v>
       </c>
       <c r="J11">
         <v>13</v>
@@ -4097,28 +4097,28 @@
         <v>69</v>
       </c>
       <c r="B2">
-        <v>0.863</v>
+        <v>0.72</v>
       </c>
       <c r="C2">
-        <v>0.785</v>
+        <v>0.678</v>
       </c>
       <c r="D2">
-        <v>0.72</v>
+        <v>0.639</v>
       </c>
       <c r="E2">
-        <v>0.678</v>
+        <v>0.617</v>
       </c>
       <c r="F2">
-        <v>0.857</v>
+        <v>0.704</v>
       </c>
       <c r="G2">
-        <v>0.772</v>
+        <v>0.659</v>
       </c>
       <c r="H2">
-        <v>0.704</v>
+        <v>0.617</v>
       </c>
       <c r="I2">
-        <v>0.659</v>
+        <v>0.595</v>
       </c>
       <c r="J2">
         <v>13</v>
@@ -4129,28 +4129,28 @@
         <v>70</v>
       </c>
       <c r="B3">
-        <v>0.999</v>
+        <v>0.95</v>
       </c>
       <c r="C3">
-        <v>0.983</v>
+        <v>0.903</v>
       </c>
       <c r="D3">
-        <v>0.95</v>
+        <v>0.858</v>
       </c>
       <c r="E3">
-        <v>0.903</v>
+        <v>0.826</v>
       </c>
       <c r="F3">
-        <v>0.985</v>
+        <v>0.911</v>
       </c>
       <c r="G3">
-        <v>0.958</v>
+        <v>0.853</v>
       </c>
       <c r="H3">
-        <v>0.911</v>
+        <v>0.798</v>
       </c>
       <c r="I3">
-        <v>0.853</v>
+        <v>0.758</v>
       </c>
       <c r="J3">
         <v>13</v>
@@ -4161,28 +4161,28 @@
         <v>71</v>
       </c>
       <c r="B4">
-        <v>0.998</v>
+        <v>0.958</v>
       </c>
       <c r="C4">
-        <v>0.989</v>
+        <v>0.912</v>
       </c>
       <c r="D4">
-        <v>0.958</v>
+        <v>0.871</v>
       </c>
       <c r="E4">
+        <v>0.829</v>
+      </c>
+      <c r="F4">
         <v>0.912</v>
       </c>
-      <c r="F4">
-        <v>0.987</v>
-      </c>
       <c r="G4">
-        <v>0.962</v>
+        <v>0.848</v>
       </c>
       <c r="H4">
-        <v>0.912</v>
+        <v>0.793</v>
       </c>
       <c r="I4">
-        <v>0.848</v>
+        <v>0.74</v>
       </c>
       <c r="J4">
         <v>12</v>
@@ -4193,28 +4193,28 @@
         <v>72</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="C5">
-        <v>0.998</v>
+        <v>0.95</v>
       </c>
       <c r="D5">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="E5">
-        <v>0.95</v>
+        <v>0.882</v>
       </c>
       <c r="F5">
-        <v>0.986</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="G5">
-        <v>0.972</v>
+        <v>0.892</v>
       </c>
       <c r="H5">
-        <v>0.9379999999999999</v>
+        <v>0.844</v>
       </c>
       <c r="I5">
-        <v>0.892</v>
+        <v>0.796</v>
       </c>
       <c r="J5">
         <v>13</v>
@@ -4225,28 +4225,28 @@
         <v>73</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="C6">
-        <v>0.997</v>
+        <v>0.971</v>
       </c>
       <c r="D6">
-        <v>0.99</v>
+        <v>0.952</v>
       </c>
       <c r="E6">
-        <v>0.971</v>
+        <v>0.928</v>
       </c>
       <c r="F6">
-        <v>0.987</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="G6">
-        <v>0.97</v>
+        <v>0.902</v>
       </c>
       <c r="H6">
-        <v>0.9429999999999999</v>
+        <v>0.862</v>
       </c>
       <c r="I6">
-        <v>0.902</v>
+        <v>0.821</v>
       </c>
       <c r="J6">
         <v>12</v>
@@ -4257,28 +4257,28 @@
         <v>74</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="C7">
-        <v>0.999</v>
+        <v>0.984</v>
       </c>
       <c r="D7">
-        <v>0.995</v>
+        <v>0.967</v>
       </c>
       <c r="E7">
-        <v>0.984</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F7">
-        <v>0.988</v>
+        <v>0.945</v>
       </c>
       <c r="G7">
-        <v>0.972</v>
+        <v>0.909</v>
       </c>
       <c r="H7">
-        <v>0.945</v>
+        <v>0.869</v>
       </c>
       <c r="I7">
-        <v>0.909</v>
+        <v>0.825</v>
       </c>
       <c r="J7">
         <v>13</v>
@@ -4289,28 +4289,28 @@
         <v>75</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.989</v>
       </c>
       <c r="D8">
-        <v>0.996</v>
+        <v>0.972</v>
       </c>
       <c r="E8">
-        <v>0.989</v>
+        <v>0.956</v>
       </c>
       <c r="F8">
-        <v>0.986</v>
+        <v>0.95</v>
       </c>
       <c r="G8">
-        <v>0.973</v>
+        <v>0.92</v>
       </c>
       <c r="H8">
-        <v>0.95</v>
+        <v>0.881</v>
       </c>
       <c r="I8">
-        <v>0.92</v>
+        <v>0.844</v>
       </c>
       <c r="J8">
         <v>12</v>
@@ -4321,28 +4321,28 @@
         <v>76</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.988</v>
       </c>
       <c r="D9">
-        <v>0.998</v>
+        <v>0.973</v>
       </c>
       <c r="E9">
-        <v>0.988</v>
+        <v>0.95</v>
       </c>
       <c r="F9">
-        <v>0.984</v>
+        <v>0.96</v>
       </c>
       <c r="G9">
-        <v>0.975</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="H9">
-        <v>0.96</v>
+        <v>0.898</v>
       </c>
       <c r="I9">
-        <v>0.9320000000000001</v>
+        <v>0.857</v>
       </c>
       <c r="J9">
         <v>13</v>
@@ -4356,25 +4356,25 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.984</v>
       </c>
       <c r="E10">
-        <v>0.995</v>
+        <v>0.97</v>
       </c>
       <c r="F10">
-        <v>0.981</v>
+        <v>0.97</v>
       </c>
       <c r="G10">
-        <v>0.976</v>
+        <v>0.95</v>
       </c>
       <c r="H10">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="I10">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="J10">
         <v>12</v>
@@ -4385,28 +4385,28 @@
         <v>78</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="D11">
-        <v>0.999</v>
+        <v>0.985</v>
       </c>
       <c r="E11">
-        <v>0.994</v>
+        <v>0.975</v>
       </c>
       <c r="F11">
-        <v>0.981</v>
+        <v>0.97</v>
       </c>
       <c r="G11">
-        <v>0.976</v>
+        <v>0.95</v>
       </c>
       <c r="H11">
-        <v>0.97</v>
+        <v>0.923</v>
       </c>
       <c r="I11">
-        <v>0.95</v>
+        <v>0.893</v>
       </c>
       <c r="J11">
         <v>13</v>
@@ -4462,28 +4462,28 @@
         <v>79</v>
       </c>
       <c r="B2">
-        <v>0.9320000000000001</v>
+        <v>0.767</v>
       </c>
       <c r="C2">
-        <v>0.852</v>
+        <v>0.698</v>
       </c>
       <c r="D2">
-        <v>0.767</v>
+        <v>0.645</v>
       </c>
       <c r="E2">
-        <v>0.698</v>
+        <v>0.615</v>
       </c>
       <c r="F2">
-        <v>0.924</v>
+        <v>0.745</v>
       </c>
       <c r="G2">
-        <v>0.835</v>
+        <v>0.674</v>
       </c>
       <c r="H2">
-        <v>0.745</v>
+        <v>0.62</v>
       </c>
       <c r="I2">
-        <v>0.674</v>
+        <v>0.592</v>
       </c>
       <c r="J2">
         <v>13</v>
@@ -4494,28 +4494,28 @@
         <v>80</v>
       </c>
       <c r="B3">
-        <v>0.93</v>
+        <v>0.893</v>
       </c>
       <c r="C3">
-        <v>0.914</v>
+        <v>0.862</v>
       </c>
       <c r="D3">
-        <v>0.893</v>
+        <v>0.823</v>
       </c>
       <c r="E3">
-        <v>0.862</v>
+        <v>0.793</v>
       </c>
       <c r="F3">
-        <v>0.919</v>
+        <v>0.858</v>
       </c>
       <c r="G3">
-        <v>0.893</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="H3">
-        <v>0.858</v>
+        <v>0.765</v>
       </c>
       <c r="I3">
-        <v>0.8149999999999999</v>
+        <v>0.725</v>
       </c>
       <c r="J3">
         <v>13</v>
@@ -4526,28 +4526,28 @@
         <v>81</v>
       </c>
       <c r="B4">
-        <v>0.999</v>
+        <v>0.963</v>
       </c>
       <c r="C4">
-        <v>0.99</v>
+        <v>0.927</v>
       </c>
       <c r="D4">
-        <v>0.963</v>
+        <v>0.895</v>
       </c>
       <c r="E4">
-        <v>0.927</v>
+        <v>0.861</v>
       </c>
       <c r="F4">
-        <v>0.986</v>
+        <v>0.92</v>
       </c>
       <c r="G4">
-        <v>0.963</v>
+        <v>0.868</v>
       </c>
       <c r="H4">
-        <v>0.92</v>
+        <v>0.822</v>
       </c>
       <c r="I4">
-        <v>0.868</v>
+        <v>0.775</v>
       </c>
       <c r="J4">
         <v>12</v>
@@ -4558,28 +4558,28 @@
         <v>82</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.978</v>
       </c>
       <c r="C5">
-        <v>0.997</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="D5">
-        <v>0.978</v>
+        <v>0.91</v>
       </c>
       <c r="E5">
-        <v>0.9429999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="F5">
-        <v>0.986</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="G5">
-        <v>0.971</v>
+        <v>0.886</v>
       </c>
       <c r="H5">
-        <v>0.9370000000000001</v>
+        <v>0.836</v>
       </c>
       <c r="I5">
-        <v>0.886</v>
+        <v>0.787</v>
       </c>
       <c r="J5">
         <v>13</v>
@@ -4590,28 +4590,28 @@
         <v>83</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="C6">
-        <v>0.998</v>
+        <v>0.978</v>
       </c>
       <c r="D6">
-        <v>0.993</v>
+        <v>0.959</v>
       </c>
       <c r="E6">
-        <v>0.978</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="F6">
-        <v>0.987</v>
+        <v>0.946</v>
       </c>
       <c r="G6">
-        <v>0.971</v>
+        <v>0.908</v>
       </c>
       <c r="H6">
-        <v>0.946</v>
+        <v>0.867</v>
       </c>
       <c r="I6">
-        <v>0.908</v>
+        <v>0.824</v>
       </c>
       <c r="J6">
         <v>12</v>
@@ -4622,28 +4622,28 @@
         <v>84</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.983</v>
       </c>
       <c r="D7">
-        <v>0.995</v>
+        <v>0.964</v>
       </c>
       <c r="E7">
-        <v>0.983</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="F7">
-        <v>0.988</v>
+        <v>0.945</v>
       </c>
       <c r="G7">
-        <v>0.972</v>
+        <v>0.908</v>
       </c>
       <c r="H7">
-        <v>0.945</v>
+        <v>0.867</v>
       </c>
       <c r="I7">
-        <v>0.908</v>
+        <v>0.822</v>
       </c>
       <c r="J7">
         <v>13</v>
@@ -4657,25 +4657,25 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.984</v>
       </c>
       <c r="E8">
-        <v>0.997</v>
+        <v>0.971</v>
       </c>
       <c r="F8">
-        <v>0.986</v>
+        <v>0.953</v>
       </c>
       <c r="G8">
-        <v>0.973</v>
+        <v>0.926</v>
       </c>
       <c r="H8">
-        <v>0.953</v>
+        <v>0.89</v>
       </c>
       <c r="I8">
-        <v>0.926</v>
+        <v>0.854</v>
       </c>
       <c r="J8">
         <v>12</v>
@@ -4686,28 +4686,28 @@
         <v>86</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.987</v>
       </c>
       <c r="D9">
-        <v>0.998</v>
+        <v>0.972</v>
       </c>
       <c r="E9">
-        <v>0.987</v>
+        <v>0.952</v>
       </c>
       <c r="F9">
-        <v>0.984</v>
+        <v>0.957</v>
       </c>
       <c r="G9">
-        <v>0.974</v>
+        <v>0.928</v>
       </c>
       <c r="H9">
-        <v>0.957</v>
+        <v>0.892</v>
       </c>
       <c r="I9">
-        <v>0.928</v>
+        <v>0.854</v>
       </c>
       <c r="J9">
         <v>13</v>
@@ -4721,25 +4721,25 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.988</v>
       </c>
       <c r="E10">
-        <v>0.996</v>
+        <v>0.975</v>
       </c>
       <c r="F10">
-        <v>0.98</v>
+        <v>0.973</v>
       </c>
       <c r="G10">
-        <v>0.977</v>
+        <v>0.955</v>
       </c>
       <c r="H10">
-        <v>0.973</v>
+        <v>0.928</v>
       </c>
       <c r="I10">
-        <v>0.955</v>
+        <v>0.898</v>
       </c>
       <c r="J10">
         <v>12</v>
@@ -4750,28 +4750,28 @@
         <v>88</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="D11">
-        <v>0.998</v>
+        <v>0.984</v>
       </c>
       <c r="E11">
-        <v>0.993</v>
+        <v>0.972</v>
       </c>
       <c r="F11">
-        <v>0.981</v>
+        <v>0.97</v>
       </c>
       <c r="G11">
-        <v>0.976</v>
+        <v>0.95</v>
       </c>
       <c r="H11">
-        <v>0.97</v>
+        <v>0.922</v>
       </c>
       <c r="I11">
-        <v>0.95</v>
+        <v>0.891</v>
       </c>
       <c r="J11">
         <v>13</v>
@@ -4827,28 +4827,28 @@
         <v>89</v>
       </c>
       <c r="B2">
-        <v>0.9330000000000001</v>
+        <v>0.768</v>
       </c>
       <c r="C2">
-        <v>0.85</v>
+        <v>0.702</v>
       </c>
       <c r="D2">
-        <v>0.768</v>
+        <v>0.647</v>
       </c>
       <c r="E2">
-        <v>0.702</v>
+        <v>0.618</v>
       </c>
       <c r="F2">
-        <v>0.924</v>
+        <v>0.746</v>
       </c>
       <c r="G2">
-        <v>0.834</v>
+        <v>0.677</v>
       </c>
       <c r="H2">
-        <v>0.746</v>
+        <v>0.622</v>
       </c>
       <c r="I2">
-        <v>0.677</v>
+        <v>0.594</v>
       </c>
       <c r="J2">
         <v>13</v>
@@ -4859,28 +4859,28 @@
         <v>90</v>
       </c>
       <c r="B3">
-        <v>0.999</v>
+        <v>0.962</v>
       </c>
       <c r="C3">
-        <v>0.99</v>
+        <v>0.915</v>
       </c>
       <c r="D3">
-        <v>0.962</v>
+        <v>0.87</v>
       </c>
       <c r="E3">
-        <v>0.915</v>
+        <v>0.83</v>
       </c>
       <c r="F3">
-        <v>0.985</v>
+        <v>0.921</v>
       </c>
       <c r="G3">
-        <v>0.964</v>
+        <v>0.859</v>
       </c>
       <c r="H3">
-        <v>0.921</v>
+        <v>0.803</v>
       </c>
       <c r="I3">
-        <v>0.859</v>
+        <v>0.755</v>
       </c>
       <c r="J3">
         <v>13</v>
@@ -4891,28 +4891,28 @@
         <v>91</v>
       </c>
       <c r="B4">
-        <v>0.972</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="C4">
-        <v>0.963</v>
+        <v>0.911</v>
       </c>
       <c r="D4">
-        <v>0.9419999999999999</v>
+        <v>0.882</v>
       </c>
       <c r="E4">
-        <v>0.911</v>
+        <v>0.85</v>
       </c>
       <c r="F4">
-        <v>0.961</v>
+        <v>0.898</v>
       </c>
       <c r="G4">
-        <v>0.9379999999999999</v>
+        <v>0.852</v>
       </c>
       <c r="H4">
-        <v>0.898</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="I4">
-        <v>0.852</v>
+        <v>0.762</v>
       </c>
       <c r="J4">
         <v>12</v>
@@ -4923,28 +4923,28 @@
         <v>92</v>
       </c>
       <c r="B5">
-        <v>0.955</v>
+        <v>0.927</v>
       </c>
       <c r="C5">
-        <v>0.945</v>
+        <v>0.897</v>
       </c>
       <c r="D5">
-        <v>0.927</v>
+        <v>0.863</v>
       </c>
       <c r="E5">
-        <v>0.897</v>
+        <v>0.83</v>
       </c>
       <c r="F5">
-        <v>0.9429999999999999</v>
+        <v>0.891</v>
       </c>
       <c r="G5">
-        <v>0.922</v>
+        <v>0.846</v>
       </c>
       <c r="H5">
-        <v>0.891</v>
+        <v>0.799</v>
       </c>
       <c r="I5">
-        <v>0.846</v>
+        <v>0.757</v>
       </c>
       <c r="J5">
         <v>13</v>
@@ -4955,28 +4955,28 @@
         <v>93</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="C6">
-        <v>0.999</v>
+        <v>0.983</v>
       </c>
       <c r="D6">
-        <v>0.995</v>
+        <v>0.966</v>
       </c>
       <c r="E6">
-        <v>0.983</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="F6">
-        <v>0.986</v>
+        <v>0.949</v>
       </c>
       <c r="G6">
-        <v>0.973</v>
+        <v>0.916</v>
       </c>
       <c r="H6">
-        <v>0.949</v>
+        <v>0.876</v>
       </c>
       <c r="I6">
-        <v>0.916</v>
+        <v>0.833</v>
       </c>
       <c r="J6">
         <v>12</v>
@@ -4987,28 +4987,28 @@
         <v>94</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="D7">
-        <v>0.998</v>
+        <v>0.979</v>
       </c>
       <c r="E7">
-        <v>0.99</v>
+        <v>0.957</v>
       </c>
       <c r="F7">
-        <v>0.988</v>
+        <v>0.948</v>
       </c>
       <c r="G7">
-        <v>0.972</v>
+        <v>0.914</v>
       </c>
       <c r="H7">
-        <v>0.948</v>
+        <v>0.878</v>
       </c>
       <c r="I7">
-        <v>0.914</v>
+        <v>0.836</v>
       </c>
       <c r="J7">
         <v>13</v>
@@ -5019,28 +5019,28 @@
         <v>95</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.989</v>
       </c>
       <c r="D8">
-        <v>0.996</v>
+        <v>0.97</v>
       </c>
       <c r="E8">
-        <v>0.989</v>
+        <v>0.953</v>
       </c>
       <c r="F8">
-        <v>0.986</v>
+        <v>0.95</v>
       </c>
       <c r="G8">
-        <v>0.973</v>
+        <v>0.92</v>
       </c>
       <c r="H8">
-        <v>0.95</v>
+        <v>0.879</v>
       </c>
       <c r="I8">
-        <v>0.92</v>
+        <v>0.842</v>
       </c>
       <c r="J8">
         <v>12</v>
@@ -5051,28 +5051,28 @@
         <v>96</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.987</v>
       </c>
       <c r="D9">
-        <v>0.998</v>
+        <v>0.972</v>
       </c>
       <c r="E9">
-        <v>0.987</v>
+        <v>0.952</v>
       </c>
       <c r="F9">
-        <v>0.984</v>
+        <v>0.957</v>
       </c>
       <c r="G9">
-        <v>0.974</v>
+        <v>0.928</v>
       </c>
       <c r="H9">
-        <v>0.957</v>
+        <v>0.892</v>
       </c>
       <c r="I9">
-        <v>0.928</v>
+        <v>0.854</v>
       </c>
       <c r="J9">
         <v>13</v>
@@ -5086,25 +5086,25 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.988</v>
       </c>
       <c r="E10">
-        <v>0.996</v>
+        <v>0.975</v>
       </c>
       <c r="F10">
-        <v>0.98</v>
+        <v>0.973</v>
       </c>
       <c r="G10">
-        <v>0.977</v>
+        <v>0.955</v>
       </c>
       <c r="H10">
-        <v>0.973</v>
+        <v>0.928</v>
       </c>
       <c r="I10">
-        <v>0.955</v>
+        <v>0.898</v>
       </c>
       <c r="J10">
         <v>12</v>
@@ -5115,28 +5115,28 @@
         <v>98</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="D11">
-        <v>0.998</v>
+        <v>0.984</v>
       </c>
       <c r="E11">
-        <v>0.993</v>
+        <v>0.972</v>
       </c>
       <c r="F11">
-        <v>0.981</v>
+        <v>0.97</v>
       </c>
       <c r="G11">
-        <v>0.976</v>
+        <v>0.95</v>
       </c>
       <c r="H11">
-        <v>0.97</v>
+        <v>0.922</v>
       </c>
       <c r="I11">
-        <v>0.95</v>
+        <v>0.891</v>
       </c>
       <c r="J11">
         <v>13</v>
